--- a/upload files/Preferences v6.xlsx
+++ b/upload files/Preferences v6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/Git Working Docs/staffing-rebid-engine-main/upload files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/Git Repo Clone/CrewOps360/upload files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6267523-4577-1240-9DDE-ADF781914311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B38311D-E8D2-0B42-99D6-86870EBD087E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="740" windowWidth="29040" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="740" windowWidth="29040" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -996,8 +996,8 @@
   <dimension ref="A1:U998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4446,7 +4446,7 @@
         <v>25</v>
       </c>
       <c r="C54" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="8">
         <v>54</v>
@@ -4511,7 +4511,7 @@
         <v>25</v>
       </c>
       <c r="C55" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="13">
         <v>55</v>
@@ -4576,7 +4576,7 @@
         <v>25</v>
       </c>
       <c r="C56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="8">
         <v>56</v>
@@ -8956,23 +8956,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -9155,25 +9138,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17F6FD9D-19D1-439B-8BFE-82DBC99BDEA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76795637-1749-499A-98A7-94E1CD8F32E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C79516F1-8A13-4F63-820A-89A8B84A29E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9190,4 +9172,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76795637-1749-499A-98A7-94E1CD8F32E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17F6FD9D-19D1-439B-8BFE-82DBC99BDEA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/upload files/Preferences v6.xlsx
+++ b/upload files/Preferences v6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/Git Repo Clone/CrewOps360/upload files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B38311D-E8D2-0B42-99D6-86870EBD087E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B94A5D2-F6FB-6D41-BE21-75793B2CECB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="740" windowWidth="29040" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,9 +275,6 @@
     <t>Kraby</t>
   </si>
   <si>
-    <t>Pellegrine</t>
-  </si>
-  <si>
     <t>Sammon</t>
   </si>
   <si>
@@ -344,9 +341,6 @@
     <t>Clark</t>
   </si>
   <si>
-    <t>Odle</t>
-  </si>
-  <si>
     <t>Ravenelle</t>
   </si>
   <si>
@@ -360,6 +354,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Saraceno</t>
+  </si>
+  <si>
+    <t>Payton</t>
   </si>
 </sst>
 </file>
@@ -996,8 +996,8 @@
   <dimension ref="A1:U998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1088,7 +1088,7 @@
         <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1277,7 +1277,7 @@
         <v>4</v>
       </c>
       <c r="U4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1342,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="U5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1596,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="U9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="U11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -1850,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="U13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -1915,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="U14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="U15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="U16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="U19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="U20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2364,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="U21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="U23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="U27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2816,7 +2816,7 @@
         <v>3</v>
       </c>
       <c r="U28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="U29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="U30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="U31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3076,7 +3076,7 @@
         <v>4</v>
       </c>
       <c r="U32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3141,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="U33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3206,7 +3206,7 @@
         <v>4</v>
       </c>
       <c r="U34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3271,7 +3271,7 @@
         <v>2</v>
       </c>
       <c r="U35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3398,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="U37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3463,7 +3463,7 @@
         <v>4</v>
       </c>
       <c r="U38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3528,7 +3528,7 @@
         <v>2</v>
       </c>
       <c r="U39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="U40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3658,7 +3658,7 @@
         <v>2</v>
       </c>
       <c r="U41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="U42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3788,7 +3788,7 @@
         <v>4</v>
       </c>
       <c r="U43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3853,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="U44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3918,7 +3918,7 @@
         <v>4</v>
       </c>
       <c r="U45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3983,7 +3983,7 @@
         <v>2</v>
       </c>
       <c r="U46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4113,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="U48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4178,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="U49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4243,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="U50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="U51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4373,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4500,7 +4500,7 @@
         <v>4</v>
       </c>
       <c r="U54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4565,12 +4565,12 @@
         <v>4</v>
       </c>
       <c r="U55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>25</v>
@@ -4630,12 +4630,12 @@
         <v>4</v>
       </c>
       <c r="U56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>37</v>
@@ -4695,12 +4695,12 @@
         <v>4</v>
       </c>
       <c r="U57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>21</v>
@@ -4760,12 +4760,12 @@
         <v>4</v>
       </c>
       <c r="U58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>21</v>
@@ -4825,12 +4825,12 @@
         <v>1</v>
       </c>
       <c r="U59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>21</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="61" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>25</v>
@@ -4952,12 +4952,12 @@
         <v>4</v>
       </c>
       <c r="U61" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>37</v>
@@ -5017,12 +5017,12 @@
         <v>1</v>
       </c>
       <c r="U62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>21</v>
@@ -5082,12 +5082,12 @@
         <v>1</v>
       </c>
       <c r="U63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>21</v>
@@ -5147,12 +5147,12 @@
         <v>1</v>
       </c>
       <c r="U64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>21</v>
@@ -5212,12 +5212,12 @@
         <v>4</v>
       </c>
       <c r="U65" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>21</v>
@@ -5277,12 +5277,12 @@
         <v>1</v>
       </c>
       <c r="U66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>21</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="68" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>25</v>
@@ -5404,12 +5404,12 @@
         <v>2</v>
       </c>
       <c r="U68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>25</v>
@@ -5469,12 +5469,12 @@
         <v>1</v>
       </c>
       <c r="U69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>21</v>
@@ -5534,12 +5534,12 @@
         <v>1</v>
       </c>
       <c r="U70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>21</v>
@@ -5599,12 +5599,12 @@
         <v>4</v>
       </c>
       <c r="U71" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>25</v>
@@ -5664,12 +5664,12 @@
         <v>2</v>
       </c>
       <c r="U72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>37</v>
@@ -5729,12 +5729,12 @@
         <v>0</v>
       </c>
       <c r="U73" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>25</v>
@@ -5794,12 +5794,12 @@
         <v>3</v>
       </c>
       <c r="U74" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>21</v>
@@ -5859,12 +5859,12 @@
         <v>1</v>
       </c>
       <c r="U75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>21</v>
@@ -5924,12 +5924,12 @@
         <v>2</v>
       </c>
       <c r="U76" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>25</v>
@@ -5989,12 +5989,12 @@
         <v>4</v>
       </c>
       <c r="U77" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>21</v>
@@ -6054,12 +6054,12 @@
         <v>1</v>
       </c>
       <c r="U78" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>21</v>
@@ -6119,12 +6119,12 @@
         <v>4</v>
       </c>
       <c r="U79" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -6184,7 +6184,7 @@
         <v>4</v>
       </c>
       <c r="U80" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9139,20 +9139,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9175,6 +9175,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17F6FD9D-19D1-439B-8BFE-82DBC99BDEA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76795637-1749-499A-98A7-94E1CD8F32E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9182,12 +9190,4 @@
     <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17F6FD9D-19D1-439B-8BFE-82DBC99BDEA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/upload files/Preferences v6.xlsx
+++ b/upload files/Preferences v6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/Git Repo Clone/CrewOps360/upload files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B94A5D2-F6FB-6D41-BE21-75793B2CECB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2801FF2B-1C46-D44E-85A2-2CEF799AEDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="740" windowWidth="29040" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="680" windowWidth="29040" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -708,10 +708,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,8 +762,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:U80">
   <autoFilter ref="A1:U80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T80">
-    <sortCondition ref="D1:D80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U80">
+    <sortCondition ref="A1:A80"/>
   </sortState>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STAFF NAME"/>
@@ -997,7 +994,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1102,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
@@ -1155,38 +1152,38 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="13">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="14">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12">
+        <v>6</v>
+      </c>
+      <c r="H3" s="12">
+        <v>7</v>
+      </c>
+      <c r="I3" s="12">
+        <v>2</v>
+      </c>
+      <c r="J3" s="12">
         <v>8</v>
       </c>
-      <c r="G3" s="12">
+      <c r="K3" s="12">
         <v>9</v>
       </c>
-      <c r="H3" s="12">
-        <v>6</v>
-      </c>
-      <c r="I3" s="12">
-        <v>7</v>
-      </c>
-      <c r="J3" s="12">
-        <v>2</v>
-      </c>
-      <c r="K3" s="12">
-        <v>3</v>
-      </c>
       <c r="L3" s="12">
         <v>0</v>
       </c>
@@ -1194,104 +1191,107 @@
         <v>1</v>
       </c>
       <c r="N3" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O3" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P3" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R3" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S3" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" s="15">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="8">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="9">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>9</v>
+      </c>
+      <c r="M4" s="7">
         <v>8</v>
       </c>
-      <c r="G4" s="7">
-        <v>9</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="N4" s="7">
         <v>6</v>
       </c>
-      <c r="I4" s="7">
+      <c r="O4" s="7">
         <v>7</v>
       </c>
-      <c r="J4" s="7">
-        <v>2</v>
-      </c>
-      <c r="K4" s="7">
-        <v>3</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>4</v>
-      </c>
-      <c r="O4" s="7">
-        <v>5</v>
-      </c>
       <c r="P4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T4" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
       </c>
       <c r="D5" s="13">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
@@ -1303,170 +1303,173 @@
         <v>6</v>
       </c>
       <c r="H5" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K5" s="12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L5" s="12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M5" s="12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N5" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O5" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P5" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R5" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T5" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="8">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7">
         <v>5</v>
       </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
+      <c r="L6" s="7">
+        <v>6</v>
+      </c>
+      <c r="M6" s="7">
+        <v>7</v>
+      </c>
+      <c r="N6" s="7">
         <v>9</v>
       </c>
-      <c r="G6" s="7">
+      <c r="O6" s="7">
         <v>8</v>
       </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2</v>
-      </c>
-      <c r="J6" s="7">
-        <v>7</v>
-      </c>
-      <c r="K6" s="7">
-        <v>6</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>5</v>
-      </c>
-      <c r="O6" s="7">
-        <v>4</v>
-      </c>
       <c r="P6" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T6" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="13">
+        <v>63</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
         <v>6</v>
       </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="G7" s="12">
+        <v>7</v>
+      </c>
+      <c r="H7" s="12">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12">
+        <v>5</v>
+      </c>
+      <c r="J7" s="12">
         <v>8</v>
       </c>
-      <c r="G7" s="12">
-        <v>6</v>
-      </c>
-      <c r="H7" s="12">
-        <v>3</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>7</v>
-      </c>
       <c r="K7" s="12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L7" s="12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M7" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O7" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S7" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="s">
         <v>103</v>
@@ -1474,78 +1477,78 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="8">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>9</v>
+      </c>
+      <c r="G8" s="7">
         <v>7</v>
       </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>4</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3</v>
+      </c>
+      <c r="J8" s="7">
         <v>5</v>
       </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
       <c r="K8" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L8" s="7">
+        <v>8</v>
+      </c>
+      <c r="M8" s="7">
         <v>6</v>
       </c>
-      <c r="M8" s="7">
-        <v>7</v>
-      </c>
       <c r="N8" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P8" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8" s="7">
         <v>3</v>
       </c>
       <c r="T8" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
       </c>
       <c r="D9" s="13">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E9" s="12">
         <v>0</v>
@@ -1601,69 +1604,72 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="8">
+        <v>64</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7">
+        <v>7</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <v>8</v>
+      </c>
+      <c r="M10" s="7">
         <v>9</v>
       </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>9</v>
-      </c>
-      <c r="G10" s="7">
-        <v>3</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6</v>
-      </c>
-      <c r="J10" s="7">
-        <v>8</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="N10" s="7">
+        <v>4</v>
+      </c>
+      <c r="O10" s="7">
         <v>5</v>
       </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>4</v>
-      </c>
-      <c r="O10" s="7">
-        <v>2</v>
-      </c>
       <c r="P10" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="7">
         <v>2</v>
       </c>
       <c r="R10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T10" s="10">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="U10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>21</v>
@@ -1672,16 +1678,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="13">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
       </c>
       <c r="F11" s="14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H11" s="12">
         <v>5</v>
@@ -1690,10 +1696,10 @@
         <v>2</v>
       </c>
       <c r="J11" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K11" s="12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L11" s="12">
         <v>0</v>
@@ -1723,43 +1729,43 @@
         <v>1</v>
       </c>
       <c r="U11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="8">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="E12" s="7">
         <v>0</v>
       </c>
       <c r="F12" s="9">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7">
         <v>8</v>
       </c>
-      <c r="G12" s="7">
+      <c r="K12" s="7">
         <v>9</v>
       </c>
-      <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7</v>
-      </c>
-      <c r="J12" s="7">
-        <v>2</v>
-      </c>
-      <c r="K12" s="7">
-        <v>3</v>
-      </c>
       <c r="L12" s="7">
         <v>0</v>
       </c>
@@ -1767,87 +1773,90 @@
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O12" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P12" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R12" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S12" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T12" s="10">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C13" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="13">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="E13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="14">
+        <v>7</v>
+      </c>
+      <c r="G13" s="12">
         <v>6</v>
       </c>
-      <c r="G13" s="12">
-        <v>7</v>
-      </c>
       <c r="H13" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I13" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L13" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M13" s="12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N13" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O13" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P13" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S13" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T13" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U13" t="s">
         <v>101</v>
@@ -1855,55 +1864,55 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="8">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
       </c>
       <c r="F14" s="9">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7">
         <v>8</v>
       </c>
-      <c r="G14" s="7">
+      <c r="M14" s="7">
+        <v>9</v>
+      </c>
+      <c r="N14" s="7">
         <v>6</v>
       </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>2</v>
-      </c>
-      <c r="K14" s="7">
-        <v>1</v>
-      </c>
-      <c r="L14" s="7">
-        <v>9</v>
-      </c>
-      <c r="M14" s="7">
+      <c r="O14" s="7">
         <v>7</v>
       </c>
-      <c r="N14" s="7">
-        <v>5</v>
-      </c>
-      <c r="O14" s="7">
-        <v>3</v>
-      </c>
       <c r="P14" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R14" s="7">
         <v>0</v>
@@ -1912,107 +1921,104 @@
         <v>3</v>
       </c>
       <c r="T14" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
       </c>
       <c r="D15" s="13">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="14">
+        <v>8</v>
+      </c>
+      <c r="G15" s="12">
+        <v>9</v>
+      </c>
+      <c r="H15" s="12">
+        <v>6</v>
+      </c>
+      <c r="I15" s="12">
+        <v>7</v>
+      </c>
+      <c r="J15" s="12">
+        <v>2</v>
+      </c>
+      <c r="K15" s="12">
+        <v>3</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1</v>
+      </c>
+      <c r="N15" s="12">
+        <v>4</v>
+      </c>
+      <c r="O15" s="12">
         <v>5</v>
       </c>
-      <c r="G15" s="12">
-        <v>4</v>
-      </c>
-      <c r="H15" s="12">
-        <v>3</v>
-      </c>
-      <c r="I15" s="12">
-        <v>2</v>
-      </c>
-      <c r="J15" s="12">
-        <v>1</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <v>9</v>
-      </c>
-      <c r="M15" s="12">
-        <v>8</v>
-      </c>
-      <c r="N15" s="12">
-        <v>6</v>
-      </c>
-      <c r="O15" s="12">
-        <v>7</v>
-      </c>
       <c r="P15" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R15" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T15" s="15">
-        <v>3</v>
-      </c>
-      <c r="U15" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C16" s="12">
         <v>1</v>
       </c>
       <c r="D16" s="13">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E16" s="12">
         <v>0</v>
       </c>
       <c r="F16" s="14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G16" s="12">
         <v>6</v>
       </c>
       <c r="H16" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I16" s="12">
         <v>4</v>
       </c>
       <c r="J16" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K16" s="12">
         <v>9</v>
@@ -2030,13 +2036,13 @@
         <v>3</v>
       </c>
       <c r="P16" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R16" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S16" s="12">
         <v>0</v>
@@ -2045,12 +2051,12 @@
         <v>1</v>
       </c>
       <c r="U16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>21</v>
@@ -2059,179 +2065,182 @@
         <v>1</v>
       </c>
       <c r="D17" s="8">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E17" s="7">
         <v>0</v>
       </c>
       <c r="F17" s="9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G17" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="7">
         <v>8</v>
       </c>
       <c r="K17" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L17" s="7">
+        <v>2</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4</v>
+      </c>
+      <c r="O17" s="7">
         <v>5</v>
       </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>6</v>
-      </c>
-      <c r="O17" s="7">
-        <v>1</v>
-      </c>
       <c r="P17" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T17" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18" s="12">
         <v>1</v>
       </c>
       <c r="D18" s="13">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E18" s="12">
         <v>0</v>
       </c>
       <c r="F18" s="14">
+        <v>5</v>
+      </c>
+      <c r="G18" s="12">
+        <v>6</v>
+      </c>
+      <c r="H18" s="12">
+        <v>7</v>
+      </c>
+      <c r="I18" s="12">
+        <v>2</v>
+      </c>
+      <c r="J18" s="12">
+        <v>8</v>
+      </c>
+      <c r="K18" s="12">
         <v>9</v>
       </c>
-      <c r="G18" s="12">
-        <v>7</v>
-      </c>
-      <c r="H18" s="12">
-        <v>1</v>
-      </c>
-      <c r="I18" s="12">
-        <v>3</v>
-      </c>
-      <c r="J18" s="12">
-        <v>5</v>
-      </c>
-      <c r="K18" s="12">
-        <v>4</v>
-      </c>
       <c r="L18" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M18" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N18" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R18" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S18" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T18" s="15">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" s="8">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
       </c>
       <c r="F19" s="9">
+        <v>9</v>
+      </c>
+      <c r="G19" s="7">
+        <v>5</v>
+      </c>
+      <c r="H19" s="7">
+        <v>8</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2</v>
+      </c>
+      <c r="J19" s="7">
         <v>6</v>
       </c>
-      <c r="G19" s="7">
+      <c r="K19" s="7">
+        <v>3</v>
+      </c>
+      <c r="L19" s="7">
         <v>7</v>
       </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2</v>
-      </c>
-      <c r="J19" s="7">
-        <v>8</v>
-      </c>
-      <c r="K19" s="7">
-        <v>9</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P19" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R19" s="7">
         <v>2</v>
       </c>
       <c r="S19" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T19" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="s">
         <v>101</v>
@@ -2239,72 +2248,69 @@
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
       </c>
       <c r="D20" s="13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="14">
         <v>9</v>
       </c>
       <c r="G20" s="12">
+        <v>4</v>
+      </c>
+      <c r="H20" s="12">
+        <v>7</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
         <v>8</v>
       </c>
-      <c r="H20" s="12">
-        <v>3</v>
-      </c>
-      <c r="I20" s="12">
-        <v>2</v>
-      </c>
-      <c r="J20" s="12">
-        <v>1</v>
-      </c>
       <c r="K20" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M20" s="12">
+        <v>2</v>
+      </c>
+      <c r="N20" s="12">
         <v>6</v>
       </c>
-      <c r="N20" s="12">
-        <v>5</v>
-      </c>
       <c r="O20" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P20" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R20" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S20" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T20" s="15">
-        <v>1</v>
-      </c>
-      <c r="U20" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>21</v>
@@ -2313,128 +2319,125 @@
         <v>1</v>
       </c>
       <c r="D21" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G21" s="7">
+        <v>3</v>
+      </c>
+      <c r="H21" s="7">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7">
+        <v>6</v>
+      </c>
+      <c r="J21" s="7">
+        <v>8</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
         <v>5</v>
       </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3</v>
-      </c>
-      <c r="J21" s="7">
-        <v>1</v>
-      </c>
-      <c r="K21" s="7">
-        <v>2</v>
-      </c>
-      <c r="L21" s="7">
-        <v>6</v>
-      </c>
       <c r="M21" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O21" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P21" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S21" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T21" s="10">
-        <v>2</v>
-      </c>
-      <c r="U21" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C22" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="13">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E22" s="12">
         <v>1</v>
       </c>
       <c r="F22" s="14">
+        <v>6</v>
+      </c>
+      <c r="G22" s="12">
+        <v>7</v>
+      </c>
+      <c r="H22" s="12">
+        <v>3</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>4</v>
+      </c>
+      <c r="K22" s="12">
         <v>5</v>
       </c>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-      <c r="H22" s="12">
+      <c r="L22" s="12">
+        <v>8</v>
+      </c>
+      <c r="M22" s="12">
         <v>9</v>
       </c>
-      <c r="I22" s="12">
-        <v>3</v>
-      </c>
-      <c r="J22" s="12">
-        <v>7</v>
-      </c>
-      <c r="K22" s="12">
-        <v>6</v>
-      </c>
-      <c r="L22" s="12">
-        <v>2</v>
-      </c>
-      <c r="M22" s="12">
-        <v>4</v>
-      </c>
       <c r="N22" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O22" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R22" s="12">
         <v>2</v>
       </c>
       <c r="S22" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T22" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>25</v>
@@ -2443,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="8">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E23" s="7">
         <v>0</v>
@@ -2455,43 +2458,43 @@
         <v>6</v>
       </c>
       <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <v>9</v>
+      </c>
+      <c r="M23" s="7">
+        <v>8</v>
+      </c>
+      <c r="N23" s="7">
         <v>5</v>
       </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
-        <v>9</v>
-      </c>
-      <c r="K23" s="7">
-        <v>8</v>
-      </c>
-      <c r="L23" s="7">
-        <v>2</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1</v>
-      </c>
-      <c r="N23" s="7">
-        <v>4</v>
-      </c>
       <c r="O23" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P23" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S23" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T23" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U23" t="s">
         <v>103</v>
@@ -2499,7 +2502,7 @@
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>21</v>
@@ -2508,72 +2511,75 @@
         <v>1</v>
       </c>
       <c r="D24" s="13">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E24" s="12">
         <v>0</v>
       </c>
       <c r="F24" s="14">
+        <v>9</v>
+      </c>
+      <c r="G24" s="12">
         <v>8</v>
       </c>
-      <c r="G24" s="12">
-        <v>9</v>
-      </c>
       <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>5</v>
+      </c>
+      <c r="K24" s="12">
+        <v>4</v>
+      </c>
+      <c r="L24" s="12">
+        <v>7</v>
+      </c>
+      <c r="M24" s="12">
         <v>6</v>
       </c>
-      <c r="I24" s="12">
-        <v>7</v>
-      </c>
-      <c r="J24" s="12">
-        <v>0</v>
-      </c>
-      <c r="K24" s="12">
-        <v>1</v>
-      </c>
-      <c r="L24" s="12">
-        <v>2</v>
-      </c>
-      <c r="M24" s="12">
-        <v>3</v>
-      </c>
       <c r="N24" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O24" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P24" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R24" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S24" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T24" s="15">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="U24" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C25" s="12">
         <v>1</v>
       </c>
       <c r="D25" s="13">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E25" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="14">
         <v>7</v>
@@ -2582,29 +2588,29 @@
         <v>6</v>
       </c>
       <c r="H25" s="12">
+        <v>1</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>3</v>
+      </c>
+      <c r="K25" s="12">
+        <v>2</v>
+      </c>
+      <c r="L25" s="12">
         <v>5</v>
       </c>
-      <c r="I25" s="12">
-        <v>4</v>
-      </c>
-      <c r="J25" s="12">
+      <c r="M25" s="12">
+        <v>4</v>
+      </c>
+      <c r="N25" s="12">
         <v>9</v>
       </c>
-      <c r="K25" s="12">
+      <c r="O25" s="12">
         <v>8</v>
       </c>
-      <c r="L25" s="12">
-        <v>1</v>
-      </c>
-      <c r="M25" s="12">
-        <v>0</v>
-      </c>
-      <c r="N25" s="12">
-        <v>3</v>
-      </c>
-      <c r="O25" s="12">
-        <v>2</v>
-      </c>
       <c r="P25" s="14">
         <v>4</v>
       </c>
@@ -2612,78 +2618,78 @@
         <v>3</v>
       </c>
       <c r="R25" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S25" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T25" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
       <c r="D26" s="8">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E26" s="7">
         <v>0</v>
       </c>
       <c r="F26" s="9">
+        <v>5</v>
+      </c>
+      <c r="G26" s="7">
+        <v>4</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <v>9</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6</v>
+      </c>
+      <c r="O26" s="7">
         <v>7</v>
       </c>
-      <c r="G26" s="7">
-        <v>6</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4</v>
-      </c>
-      <c r="J26" s="7">
-        <v>9</v>
-      </c>
-      <c r="K26" s="7">
-        <v>8</v>
-      </c>
-      <c r="L26" s="7">
-        <v>1</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3</v>
-      </c>
-      <c r="O26" s="7">
-        <v>2</v>
-      </c>
       <c r="P26" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R26" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S26" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T26" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U26" t="s">
         <v>101</v>
@@ -2691,7 +2697,7 @@
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>25</v>
@@ -2700,52 +2706,52 @@
         <v>1</v>
       </c>
       <c r="D27" s="8">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="9">
         <v>6</v>
       </c>
       <c r="G27" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H27" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
         <v>0</v>
       </c>
       <c r="J27" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K27" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L27" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
       </c>
       <c r="N27" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O27" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P27" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R27" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S27" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T27" s="10">
         <v>1</v>
@@ -2756,64 +2762,64 @@
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
       </c>
       <c r="D28" s="13">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E28" s="12">
         <v>0</v>
       </c>
       <c r="F28" s="14">
+        <v>6</v>
+      </c>
+      <c r="G28" s="12">
+        <v>7</v>
+      </c>
+      <c r="H28" s="12">
+        <v>8</v>
+      </c>
+      <c r="I28" s="12">
+        <v>9</v>
+      </c>
+      <c r="J28" s="12">
+        <v>4</v>
+      </c>
+      <c r="K28" s="12">
         <v>5</v>
       </c>
-      <c r="G28" s="12">
-        <v>4</v>
-      </c>
-      <c r="H28" s="12">
-        <v>3</v>
-      </c>
-      <c r="I28" s="12">
-        <v>2</v>
-      </c>
-      <c r="J28" s="12">
-        <v>1</v>
-      </c>
-      <c r="K28" s="12">
-        <v>0</v>
-      </c>
       <c r="L28" s="12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M28" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N28" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O28" s="12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P28" s="14">
         <v>2</v>
       </c>
       <c r="Q28" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R28" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S28" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T28" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U28" t="s">
         <v>101</v>
@@ -2821,72 +2827,69 @@
     </row>
     <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="9">
+        <v>4</v>
+      </c>
+      <c r="G29" s="7">
+        <v>5</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>3</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="7">
+        <v>6</v>
+      </c>
+      <c r="M29" s="7">
+        <v>7</v>
+      </c>
+      <c r="N29" s="7">
+        <v>8</v>
+      </c>
+      <c r="O29" s="7">
         <v>9</v>
       </c>
-      <c r="G29" s="7">
-        <v>8</v>
-      </c>
-      <c r="H29" s="7">
-        <v>5</v>
-      </c>
-      <c r="I29" s="7">
-        <v>4</v>
-      </c>
-      <c r="J29" s="7">
-        <v>7</v>
-      </c>
-      <c r="K29" s="7">
-        <v>6</v>
-      </c>
-      <c r="L29" s="7">
-        <v>3</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7">
-        <v>1</v>
-      </c>
       <c r="P29" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R29" s="7">
         <v>2</v>
       </c>
       <c r="S29" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T29" s="10">
-        <v>1</v>
-      </c>
-      <c r="U29" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>25</v>
@@ -2895,55 +2898,55 @@
         <v>1</v>
       </c>
       <c r="D30" s="13">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E30" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="14">
+        <v>4</v>
+      </c>
+      <c r="G30" s="12">
+        <v>5</v>
+      </c>
+      <c r="H30" s="12">
+        <v>2</v>
+      </c>
+      <c r="I30" s="12">
+        <v>3</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
+      <c r="K30" s="12">
+        <v>1</v>
+      </c>
+      <c r="L30" s="12">
+        <v>6</v>
+      </c>
+      <c r="M30" s="12">
         <v>7</v>
       </c>
-      <c r="G30" s="12">
-        <v>6</v>
-      </c>
-      <c r="H30" s="12">
-        <v>1</v>
-      </c>
-      <c r="I30" s="12">
-        <v>0</v>
-      </c>
-      <c r="J30" s="12">
-        <v>3</v>
-      </c>
-      <c r="K30" s="12">
-        <v>2</v>
-      </c>
-      <c r="L30" s="12">
-        <v>5</v>
-      </c>
-      <c r="M30" s="12">
-        <v>4</v>
-      </c>
       <c r="N30" s="12">
+        <v>8</v>
+      </c>
+      <c r="O30" s="12">
         <v>9</v>
       </c>
-      <c r="O30" s="12">
-        <v>8</v>
-      </c>
       <c r="P30" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R30" s="12">
         <v>0</v>
       </c>
       <c r="S30" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T30" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U30" t="s">
         <v>101</v>
@@ -2951,7 +2954,7 @@
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>21</v>
@@ -2960,55 +2963,55 @@
         <v>1</v>
       </c>
       <c r="D31" s="8">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E31" s="7">
         <v>0</v>
       </c>
       <c r="F31" s="9">
+        <v>6</v>
+      </c>
+      <c r="G31" s="7">
+        <v>7</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1</v>
+      </c>
+      <c r="L31" s="7">
+        <v>8</v>
+      </c>
+      <c r="M31" s="7">
         <v>9</v>
       </c>
-      <c r="G31" s="7">
-        <v>8</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7">
+      <c r="N31" s="7">
+        <v>4</v>
+      </c>
+      <c r="O31" s="7">
         <v>5</v>
       </c>
-      <c r="K31" s="7">
-        <v>4</v>
-      </c>
-      <c r="L31" s="7">
-        <v>7</v>
-      </c>
-      <c r="M31" s="7">
-        <v>6</v>
-      </c>
-      <c r="N31" s="7">
-        <v>2</v>
-      </c>
-      <c r="O31" s="7">
-        <v>3</v>
-      </c>
       <c r="P31" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R31" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S31" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T31" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U31" t="s">
         <v>101</v>
@@ -3016,7 +3019,7 @@
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>25</v>
@@ -3025,43 +3028,43 @@
         <v>1</v>
       </c>
       <c r="D32" s="13">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E32" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G32" s="12">
+        <v>4</v>
+      </c>
+      <c r="H32" s="12">
+        <v>3</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
+        <v>2</v>
+      </c>
+      <c r="K32" s="12">
+        <v>1</v>
+      </c>
+      <c r="L32" s="12">
+        <v>7</v>
+      </c>
+      <c r="M32" s="12">
         <v>5</v>
       </c>
-      <c r="H32" s="12">
-        <v>2</v>
-      </c>
-      <c r="I32" s="12">
-        <v>3</v>
-      </c>
-      <c r="J32" s="12">
-        <v>0</v>
-      </c>
-      <c r="K32" s="12">
-        <v>1</v>
-      </c>
-      <c r="L32" s="12">
-        <v>6</v>
-      </c>
-      <c r="M32" s="12">
-        <v>7</v>
-      </c>
       <c r="N32" s="12">
+        <v>9</v>
+      </c>
+      <c r="O32" s="12">
         <v>8</v>
       </c>
-      <c r="O32" s="12">
-        <v>9</v>
-      </c>
       <c r="P32" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q32" s="12">
         <v>2</v>
@@ -3070,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="S32" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T32" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U32" t="s">
         <v>101</v>
@@ -3081,123 +3084,120 @@
     </row>
     <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="8">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E33" s="7">
         <v>0</v>
       </c>
       <c r="F33" s="9">
+        <v>4</v>
+      </c>
+      <c r="G33" s="7">
         <v>5</v>
       </c>
-      <c r="G33" s="7">
+      <c r="H33" s="7">
+        <v>2</v>
+      </c>
+      <c r="I33" s="7">
+        <v>3</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7">
         <v>6</v>
       </c>
-      <c r="H33" s="7">
+      <c r="M33" s="7">
         <v>7</v>
       </c>
-      <c r="I33" s="7">
-        <v>2</v>
-      </c>
-      <c r="J33" s="7">
+      <c r="N33" s="7">
         <v>8</v>
       </c>
-      <c r="K33" s="7">
+      <c r="O33" s="7">
         <v>9</v>
       </c>
-      <c r="L33" s="7">
-        <v>3</v>
-      </c>
-      <c r="M33" s="7">
-        <v>4</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7">
-        <v>1</v>
-      </c>
       <c r="P33" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R33" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S33" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T33" s="10">
-        <v>1</v>
-      </c>
-      <c r="U33" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="13">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E34" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G34" s="12">
+        <v>7</v>
+      </c>
+      <c r="H34" s="12">
+        <v>2</v>
+      </c>
+      <c r="I34" s="12">
+        <v>3</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>1</v>
+      </c>
+      <c r="L34" s="12">
+        <v>8</v>
+      </c>
+      <c r="M34" s="12">
+        <v>9</v>
+      </c>
+      <c r="N34" s="12">
+        <v>4</v>
+      </c>
+      <c r="O34" s="12">
         <v>5</v>
       </c>
-      <c r="H34" s="12">
-        <v>3</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0</v>
-      </c>
-      <c r="J34" s="12">
-        <v>1</v>
-      </c>
-      <c r="K34" s="12">
-        <v>2</v>
-      </c>
-      <c r="L34" s="12">
-        <v>6</v>
-      </c>
-      <c r="M34" s="12">
-        <v>7</v>
-      </c>
-      <c r="N34" s="12">
-        <v>8</v>
-      </c>
-      <c r="O34" s="12">
-        <v>9</v>
-      </c>
       <c r="P34" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R34" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S34" s="12">
         <v>3</v>
@@ -3211,37 +3211,37 @@
     </row>
     <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
       </c>
       <c r="D35" s="8">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
       </c>
       <c r="F35" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G35" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K35" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L35" s="7">
         <v>8</v>
@@ -3250,36 +3250,36 @@
         <v>9</v>
       </c>
       <c r="N35" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O35" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P35" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R35" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S35" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T35" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -3288,57 +3288,60 @@
         <v>36</v>
       </c>
       <c r="E36" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G36" s="12">
         <v>5</v>
       </c>
       <c r="H36" s="12">
+        <v>3</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <v>1</v>
+      </c>
+      <c r="K36" s="12">
+        <v>2</v>
+      </c>
+      <c r="L36" s="12">
+        <v>6</v>
+      </c>
+      <c r="M36" s="12">
+        <v>7</v>
+      </c>
+      <c r="N36" s="12">
         <v>8</v>
       </c>
-      <c r="I36" s="12">
-        <v>2</v>
-      </c>
-      <c r="J36" s="12">
+      <c r="O36" s="12">
         <v>9</v>
       </c>
-      <c r="K36" s="12">
-        <v>6</v>
-      </c>
-      <c r="L36" s="12">
-        <v>1</v>
-      </c>
-      <c r="M36" s="12">
-        <v>0</v>
-      </c>
-      <c r="N36" s="12">
-        <v>3</v>
-      </c>
-      <c r="O36" s="12">
-        <v>4</v>
-      </c>
       <c r="P36" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R36" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S36" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T36" s="15">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="U36" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>25</v>
@@ -3347,55 +3350,55 @@
         <v>1</v>
       </c>
       <c r="D37" s="8">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="9">
+        <v>2</v>
+      </c>
+      <c r="G37" s="7">
+        <v>3</v>
+      </c>
+      <c r="H37" s="7">
+        <v>6</v>
+      </c>
+      <c r="I37" s="7">
+        <v>9</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="7">
+        <v>4</v>
+      </c>
+      <c r="M37" s="7">
+        <v>5</v>
+      </c>
+      <c r="N37" s="7">
         <v>7</v>
       </c>
-      <c r="G37" s="7">
-        <v>6</v>
-      </c>
-      <c r="H37" s="7">
-        <v>5</v>
-      </c>
-      <c r="I37" s="7">
-        <v>4</v>
-      </c>
-      <c r="J37" s="7">
-        <v>9</v>
-      </c>
-      <c r="K37" s="7">
+      <c r="O37" s="7">
         <v>8</v>
       </c>
-      <c r="L37" s="7">
-        <v>0</v>
-      </c>
-      <c r="M37" s="7">
-        <v>1</v>
-      </c>
-      <c r="N37" s="7">
-        <v>3</v>
-      </c>
-      <c r="O37" s="7">
-        <v>2</v>
-      </c>
       <c r="P37" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R37" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S37" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T37" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U37" t="s">
         <v>103</v>
@@ -3403,64 +3406,64 @@
     </row>
     <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="8">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G38" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H38" s="7">
+        <v>9</v>
+      </c>
+      <c r="I38" s="7">
+        <v>4</v>
+      </c>
+      <c r="J38" s="7">
         <v>5</v>
       </c>
-      <c r="I38" s="7">
-        <v>4</v>
-      </c>
-      <c r="J38" s="7">
-        <v>0</v>
-      </c>
       <c r="K38" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L38" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M38" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O38" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P38" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q38" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R38" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S38" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T38" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U38" t="s">
         <v>101</v>
@@ -3468,64 +3471,64 @@
     </row>
     <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="13">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="14">
+        <v>8</v>
+      </c>
+      <c r="G39" s="12">
+        <v>5</v>
+      </c>
+      <c r="H39" s="12">
         <v>7</v>
       </c>
-      <c r="G39" s="12">
-        <v>8</v>
-      </c>
-      <c r="H39" s="12">
+      <c r="I39" s="12">
+        <v>2</v>
+      </c>
+      <c r="J39" s="12">
+        <v>6</v>
+      </c>
+      <c r="K39" s="12">
+        <v>3</v>
+      </c>
+      <c r="L39" s="12">
+        <v>1</v>
+      </c>
+      <c r="M39" s="12">
+        <v>0</v>
+      </c>
+      <c r="N39" s="12">
         <v>9</v>
       </c>
-      <c r="I39" s="12">
-        <v>0</v>
-      </c>
-      <c r="J39" s="12">
-        <v>5</v>
-      </c>
-      <c r="K39" s="12">
-        <v>6</v>
-      </c>
-      <c r="L39" s="12">
-        <v>3</v>
-      </c>
-      <c r="M39" s="12">
-        <v>4</v>
-      </c>
-      <c r="N39" s="12">
-        <v>1</v>
-      </c>
       <c r="O39" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P39" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q39" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R39" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U39" t="s">
         <v>101</v>
@@ -3533,7 +3536,7 @@
     </row>
     <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>21</v>
@@ -3542,29 +3545,29 @@
         <v>1</v>
       </c>
       <c r="D40" s="8">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E40" s="7">
         <v>0</v>
       </c>
       <c r="F40" s="9">
+        <v>8</v>
+      </c>
+      <c r="G40" s="7">
+        <v>9</v>
+      </c>
+      <c r="H40" s="7">
         <v>5</v>
       </c>
-      <c r="G40" s="7">
+      <c r="I40" s="7">
+        <v>2</v>
+      </c>
+      <c r="J40" s="7">
         <v>6</v>
       </c>
-      <c r="H40" s="7">
+      <c r="K40" s="7">
         <v>7</v>
       </c>
-      <c r="I40" s="7">
-        <v>4</v>
-      </c>
-      <c r="J40" s="7">
-        <v>8</v>
-      </c>
-      <c r="K40" s="7">
-        <v>9</v>
-      </c>
       <c r="L40" s="7">
         <v>0</v>
       </c>
@@ -3572,19 +3575,19 @@
         <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O40" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P40" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q40" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R40" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S40" s="7">
         <v>0</v>
@@ -3593,77 +3596,77 @@
         <v>1</v>
       </c>
       <c r="U40" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
       </c>
       <c r="D41" s="13">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E41" s="12">
         <v>0</v>
       </c>
       <c r="F41" s="14">
+        <v>4</v>
+      </c>
+      <c r="G41" s="12">
+        <v>5</v>
+      </c>
+      <c r="H41" s="12">
+        <v>2</v>
+      </c>
+      <c r="I41" s="12">
+        <v>3</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0</v>
+      </c>
+      <c r="K41" s="12">
+        <v>1</v>
+      </c>
+      <c r="L41" s="12">
+        <v>6</v>
+      </c>
+      <c r="M41" s="12">
+        <v>7</v>
+      </c>
+      <c r="N41" s="12">
         <v>8</v>
       </c>
-      <c r="G41" s="12">
+      <c r="O41" s="12">
         <v>9</v>
       </c>
-      <c r="H41" s="12">
-        <v>1</v>
-      </c>
-      <c r="I41" s="12">
-        <v>0</v>
-      </c>
-      <c r="J41" s="12">
-        <v>2</v>
-      </c>
-      <c r="K41" s="12">
-        <v>3</v>
-      </c>
-      <c r="L41" s="12">
-        <v>4</v>
-      </c>
-      <c r="M41" s="12">
-        <v>5</v>
-      </c>
-      <c r="N41" s="12">
-        <v>6</v>
-      </c>
-      <c r="O41" s="12">
-        <v>7</v>
-      </c>
       <c r="P41" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R41" s="12">
         <v>0</v>
       </c>
       <c r="S41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T41" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U41" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>21</v>
@@ -3672,55 +3675,55 @@
         <v>1</v>
       </c>
       <c r="D42" s="8">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G42" s="7">
+        <v>4</v>
+      </c>
+      <c r="H42" s="7">
         <v>7</v>
       </c>
-      <c r="H42" s="7">
-        <v>8</v>
-      </c>
       <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
         <v>9</v>
-      </c>
-      <c r="J42" s="7">
-        <v>4</v>
       </c>
       <c r="K42" s="7">
         <v>5</v>
       </c>
       <c r="L42" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O42" s="7">
         <v>3</v>
       </c>
       <c r="P42" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q42" s="7">
         <v>3</v>
       </c>
       <c r="R42" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" t="s">
         <v>101</v>
@@ -3728,31 +3731,31 @@
     </row>
     <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
       </c>
       <c r="D43" s="13">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E43" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G43" s="12">
+        <v>3</v>
+      </c>
+      <c r="H43" s="12">
         <v>5</v>
       </c>
-      <c r="H43" s="12">
-        <v>2</v>
-      </c>
       <c r="I43" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J43" s="12">
         <v>0</v>
@@ -3788,24 +3791,24 @@
         <v>4</v>
       </c>
       <c r="U43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C44" s="7">
         <v>1</v>
       </c>
       <c r="D44" s="8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="9">
         <v>6</v>
@@ -3814,10 +3817,10 @@
         <v>7</v>
       </c>
       <c r="H44" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" s="7">
         <v>8</v>
@@ -3826,25 +3829,25 @@
         <v>9</v>
       </c>
       <c r="L44" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M44" s="7">
+        <v>1</v>
+      </c>
+      <c r="N44" s="7">
+        <v>4</v>
+      </c>
+      <c r="O44" s="7">
         <v>5</v>
       </c>
-      <c r="N44" s="7">
-        <v>2</v>
-      </c>
-      <c r="O44" s="7">
-        <v>3</v>
-      </c>
       <c r="P44" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q44" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R44" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S44" s="7">
         <v>0</v>
@@ -3858,114 +3861,114 @@
     </row>
     <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
       </c>
       <c r="D45" s="13">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E45" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="14">
+        <v>5</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0</v>
+      </c>
+      <c r="H45" s="12">
+        <v>9</v>
+      </c>
+      <c r="I45" s="12">
+        <v>3</v>
+      </c>
+      <c r="J45" s="12">
+        <v>7</v>
+      </c>
+      <c r="K45" s="12">
         <v>6</v>
       </c>
-      <c r="G45" s="12">
-        <v>7</v>
-      </c>
-      <c r="H45" s="12">
-        <v>2</v>
-      </c>
-      <c r="I45" s="12">
-        <v>3</v>
-      </c>
-      <c r="J45" s="12">
-        <v>0</v>
-      </c>
-      <c r="K45" s="12">
-        <v>1</v>
-      </c>
       <c r="L45" s="12">
+        <v>2</v>
+      </c>
+      <c r="M45" s="12">
+        <v>4</v>
+      </c>
+      <c r="N45" s="12">
         <v>8</v>
       </c>
-      <c r="M45" s="12">
-        <v>9</v>
-      </c>
-      <c r="N45" s="12">
-        <v>4</v>
-      </c>
       <c r="O45" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P45" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q45" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R45" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S45" s="12">
         <v>3</v>
       </c>
       <c r="T45" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C46" s="7">
         <v>1</v>
       </c>
       <c r="D46" s="8">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="9">
+        <v>9</v>
+      </c>
+      <c r="G46" s="7">
         <v>8</v>
       </c>
-      <c r="G46" s="7">
-        <v>9</v>
-      </c>
       <c r="H46" s="7">
         <v>3</v>
       </c>
       <c r="I46" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K46" s="7">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7">
+        <v>7</v>
+      </c>
+      <c r="M46" s="7">
+        <v>6</v>
+      </c>
+      <c r="N46" s="7">
         <v>5</v>
       </c>
-      <c r="L46" s="7">
-        <v>6</v>
-      </c>
-      <c r="M46" s="7">
-        <v>7</v>
-      </c>
-      <c r="N46" s="7">
-        <v>1</v>
-      </c>
       <c r="O46" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P46" s="9">
         <v>3</v>
@@ -3977,27 +3980,27 @@
         <v>0</v>
       </c>
       <c r="S46" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T46" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
       </c>
       <c r="D47" s="13">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E47" s="12">
         <v>1</v>
@@ -4006,25 +4009,25 @@
         <v>9</v>
       </c>
       <c r="G47" s="12">
+        <v>8</v>
+      </c>
+      <c r="H47" s="12">
         <v>5</v>
       </c>
-      <c r="H47" s="12">
-        <v>8</v>
-      </c>
       <c r="I47" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J47" s="12">
+        <v>7</v>
+      </c>
+      <c r="K47" s="12">
         <v>6</v>
       </c>
-      <c r="K47" s="12">
-        <v>3</v>
-      </c>
       <c r="L47" s="12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M47" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N47" s="12">
         <v>0</v>
@@ -4036,16 +4039,16 @@
         <v>4</v>
       </c>
       <c r="Q47" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R47" s="12">
         <v>2</v>
       </c>
       <c r="S47" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T47" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" t="s">
         <v>101</v>
@@ -4053,16 +4056,16 @@
     </row>
     <row r="48" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="8">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E48" s="7">
         <v>0</v>
@@ -4080,16 +4083,16 @@
         <v>2</v>
       </c>
       <c r="J48" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K48" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L48" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M48" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N48" s="7">
         <v>6</v>
@@ -4098,157 +4101,154 @@
         <v>7</v>
       </c>
       <c r="P48" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R48" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S48" s="7">
         <v>3</v>
       </c>
       <c r="T48" s="10">
         <v>4</v>
-      </c>
-      <c r="U48" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
       </c>
       <c r="D49" s="13">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E49" s="12">
         <v>0</v>
       </c>
       <c r="F49" s="14">
+        <v>8</v>
+      </c>
+      <c r="G49" s="12">
         <v>6</v>
       </c>
-      <c r="G49" s="12">
+      <c r="H49" s="12">
+        <v>4</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <v>2</v>
+      </c>
+      <c r="K49" s="12">
+        <v>1</v>
+      </c>
+      <c r="L49" s="12">
+        <v>9</v>
+      </c>
+      <c r="M49" s="12">
         <v>7</v>
       </c>
-      <c r="H49" s="12">
+      <c r="N49" s="12">
         <v>5</v>
       </c>
-      <c r="I49" s="12">
-        <v>2</v>
-      </c>
-      <c r="J49" s="12">
-        <v>8</v>
-      </c>
-      <c r="K49" s="12">
-        <v>9</v>
-      </c>
-      <c r="L49" s="12">
-        <v>0</v>
-      </c>
-      <c r="M49" s="12">
-        <v>1</v>
-      </c>
-      <c r="N49" s="12">
-        <v>3</v>
-      </c>
       <c r="O49" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P49" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q49" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R49" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S49" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T49" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U49" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C50" s="7">
         <v>1</v>
       </c>
       <c r="D50" s="8">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E50" s="7">
         <v>0</v>
       </c>
       <c r="F50" s="9">
+        <v>8</v>
+      </c>
+      <c r="G50" s="7">
         <v>6</v>
       </c>
-      <c r="G50" s="7">
+      <c r="H50" s="7">
+        <v>3</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
         <v>7</v>
       </c>
-      <c r="H50" s="7">
+      <c r="K50" s="7">
+        <v>2</v>
+      </c>
+      <c r="L50" s="7">
+        <v>9</v>
+      </c>
+      <c r="M50" s="7">
+        <v>4</v>
+      </c>
+      <c r="N50" s="7">
         <v>5</v>
       </c>
-      <c r="I50" s="7">
-        <v>2</v>
-      </c>
-      <c r="J50" s="7">
-        <v>8</v>
-      </c>
-      <c r="K50" s="7">
-        <v>9</v>
-      </c>
-      <c r="L50" s="7">
-        <v>3</v>
-      </c>
-      <c r="M50" s="7">
-        <v>4</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
       <c r="O50" s="7">
         <v>1</v>
       </c>
       <c r="P50" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q50" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R50" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S50" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T50" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>25</v>
@@ -4257,29 +4257,29 @@
         <v>1</v>
       </c>
       <c r="D51" s="13">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="E51" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="14">
+        <v>7</v>
+      </c>
+      <c r="G51" s="12">
         <v>6</v>
       </c>
-      <c r="G51" s="12">
-        <v>7</v>
-      </c>
       <c r="H51" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I51" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J51" s="12">
+        <v>9</v>
+      </c>
+      <c r="K51" s="12">
         <v>8</v>
       </c>
-      <c r="K51" s="12">
-        <v>9</v>
-      </c>
       <c r="L51" s="12">
         <v>0</v>
       </c>
@@ -4287,16 +4287,16 @@
         <v>1</v>
       </c>
       <c r="N51" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O51" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P51" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q51" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R51" s="12">
         <v>4</v>
@@ -4308,54 +4308,54 @@
         <v>1</v>
       </c>
       <c r="U51" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C52" s="7">
         <v>1</v>
       </c>
       <c r="D52" s="8">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="9">
+        <v>9</v>
+      </c>
+      <c r="G52" s="7">
         <v>8</v>
       </c>
-      <c r="G52" s="7">
-        <v>4</v>
-      </c>
       <c r="H52" s="7">
+        <v>3</v>
+      </c>
+      <c r="I52" s="7">
+        <v>2</v>
+      </c>
+      <c r="J52" s="7">
         <v>7</v>
       </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7">
-        <v>9</v>
-      </c>
       <c r="K52" s="7">
+        <v>6</v>
+      </c>
+      <c r="L52" s="7">
+        <v>1</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
         <v>5</v>
       </c>
-      <c r="L52" s="7">
-        <v>2</v>
-      </c>
-      <c r="M52" s="7">
-        <v>1</v>
-      </c>
-      <c r="N52" s="7">
-        <v>6</v>
-      </c>
       <c r="O52" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P52" s="9">
         <v>4</v>
@@ -4367,80 +4367,80 @@
         <v>2</v>
       </c>
       <c r="S52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" s="10">
-        <v>0</v>
-      </c>
-      <c r="U52" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C53" s="12">
         <v>1</v>
       </c>
       <c r="D53" s="13">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E53" s="12">
         <v>0</v>
       </c>
       <c r="F53" s="14">
+        <v>8</v>
+      </c>
+      <c r="G53" s="12">
+        <v>9</v>
+      </c>
+      <c r="H53" s="12">
+        <v>1</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12">
+        <v>2</v>
+      </c>
+      <c r="K53" s="12">
+        <v>3</v>
+      </c>
+      <c r="L53" s="12">
+        <v>4</v>
+      </c>
+      <c r="M53" s="12">
+        <v>5</v>
+      </c>
+      <c r="N53" s="12">
         <v>6</v>
       </c>
-      <c r="G53" s="12">
+      <c r="O53" s="12">
         <v>7</v>
       </c>
-      <c r="H53" s="12">
-        <v>0</v>
-      </c>
-      <c r="I53" s="12">
-        <v>1</v>
-      </c>
-      <c r="J53" s="12">
-        <v>8</v>
-      </c>
-      <c r="K53" s="12">
-        <v>9</v>
-      </c>
-      <c r="L53" s="12">
-        <v>2</v>
-      </c>
-      <c r="M53" s="12">
-        <v>3</v>
-      </c>
-      <c r="N53" s="12">
-        <v>4</v>
-      </c>
-      <c r="O53" s="12">
-        <v>5</v>
-      </c>
       <c r="P53" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q53" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R53" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S53" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T53" s="15">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="U53" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>25</v>
@@ -4449,55 +4449,55 @@
         <v>1</v>
       </c>
       <c r="D54" s="8">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E54" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G54" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H54" s="7">
+        <v>9</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
         <v>5</v>
       </c>
-      <c r="I54" s="7">
-        <v>2</v>
-      </c>
-      <c r="J54" s="7">
-        <v>0</v>
-      </c>
       <c r="K54" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L54" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M54" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N54" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O54" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P54" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q54" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R54" s="7">
         <v>0</v>
       </c>
       <c r="S54" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T54" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U54" t="s">
         <v>101</v>
@@ -4505,64 +4505,64 @@
     </row>
     <row r="55" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C55" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="13">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E55" s="12">
         <v>1</v>
       </c>
       <c r="F55" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G55" s="12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H55" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I55" s="12">
+        <v>2</v>
+      </c>
+      <c r="J55" s="12">
+        <v>8</v>
+      </c>
+      <c r="K55" s="12">
         <v>9</v>
       </c>
-      <c r="J55" s="12">
-        <v>0</v>
-      </c>
-      <c r="K55" s="12">
-        <v>1</v>
-      </c>
       <c r="L55" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M55" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N55" s="12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O55" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P55" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q55" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R55" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S55" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T55" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U55" t="s">
         <v>103</v>
@@ -4570,58 +4570,58 @@
     </row>
     <row r="56" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C56" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="8">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G56" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H56" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I56" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J56" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K56" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L56" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M56" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N56" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O56" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R56" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S56" s="7">
         <v>3</v>
@@ -4635,49 +4635,49 @@
     </row>
     <row r="57" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C57" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="13">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E57" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G57" s="12">
+        <v>4</v>
+      </c>
+      <c r="H57" s="12">
         <v>5</v>
       </c>
-      <c r="H57" s="12">
-        <v>3</v>
-      </c>
       <c r="I57" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L57" s="12">
+        <v>6</v>
+      </c>
+      <c r="M57" s="12">
+        <v>7</v>
+      </c>
+      <c r="N57" s="12">
         <v>8</v>
       </c>
-      <c r="M57" s="12">
+      <c r="O57" s="12">
         <v>9</v>
-      </c>
-      <c r="N57" s="12">
-        <v>6</v>
-      </c>
-      <c r="O57" s="12">
-        <v>7</v>
       </c>
       <c r="P57" s="14">
         <v>1</v>
@@ -4700,64 +4700,64 @@
     </row>
     <row r="58" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="8">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E58" s="7">
         <v>0</v>
       </c>
       <c r="F58" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G58" s="7">
+        <v>6</v>
+      </c>
+      <c r="H58" s="7">
         <v>5</v>
       </c>
-      <c r="H58" s="7">
-        <v>2</v>
-      </c>
       <c r="I58" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J58" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K58" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L58" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M58" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N58" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O58" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P58" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q58" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R58" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S58" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T58" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U58" t="s">
         <v>103</v>
@@ -4765,38 +4765,38 @@
     </row>
     <row r="59" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C59" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="13">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E59" s="12">
         <v>0</v>
       </c>
       <c r="F59" s="14">
+        <v>7</v>
+      </c>
+      <c r="G59" s="12">
+        <v>6</v>
+      </c>
+      <c r="H59" s="12">
+        <v>5</v>
+      </c>
+      <c r="I59" s="12">
+        <v>4</v>
+      </c>
+      <c r="J59" s="12">
+        <v>9</v>
+      </c>
+      <c r="K59" s="12">
         <v>8</v>
       </c>
-      <c r="G59" s="12">
-        <v>5</v>
-      </c>
-      <c r="H59" s="12">
-        <v>7</v>
-      </c>
-      <c r="I59" s="12">
-        <v>2</v>
-      </c>
-      <c r="J59" s="12">
-        <v>6</v>
-      </c>
-      <c r="K59" s="12">
-        <v>3</v>
-      </c>
       <c r="L59" s="12">
         <v>1</v>
       </c>
@@ -4804,10 +4804,10 @@
         <v>0</v>
       </c>
       <c r="N59" s="12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O59" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P59" s="14">
         <v>4</v>
@@ -4819,60 +4819,60 @@
         <v>2</v>
       </c>
       <c r="S59" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="8">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E60" s="7">
         <v>0</v>
       </c>
       <c r="F60" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G60" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H60" s="7">
+        <v>6</v>
+      </c>
+      <c r="I60" s="7">
+        <v>7</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+      <c r="K60" s="7">
+        <v>1</v>
+      </c>
+      <c r="L60" s="7">
+        <v>2</v>
+      </c>
+      <c r="M60" s="7">
+        <v>3</v>
+      </c>
+      <c r="N60" s="7">
+        <v>4</v>
+      </c>
+      <c r="O60" s="7">
         <v>5</v>
-      </c>
-      <c r="I60" s="7">
-        <v>2</v>
-      </c>
-      <c r="J60" s="7">
-        <v>8</v>
-      </c>
-      <c r="K60" s="7">
-        <v>9</v>
-      </c>
-      <c r="L60" s="7">
-        <v>0</v>
-      </c>
-      <c r="M60" s="7">
-        <v>1</v>
-      </c>
-      <c r="N60" s="7">
-        <v>6</v>
-      </c>
-      <c r="O60" s="7">
-        <v>7</v>
       </c>
       <c r="P60" s="9">
         <v>0</v>
@@ -4892,114 +4892,114 @@
     </row>
     <row r="61" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="12">
+        <v>1</v>
+      </c>
+      <c r="D61" s="13">
         <v>25</v>
       </c>
-      <c r="C61" s="12">
-        <v>0</v>
-      </c>
-      <c r="D61" s="13">
-        <v>61</v>
-      </c>
       <c r="E61" s="12">
         <v>0</v>
       </c>
       <c r="F61" s="14">
+        <v>8</v>
+      </c>
+      <c r="G61" s="12">
         <v>6</v>
       </c>
-      <c r="G61" s="12">
+      <c r="H61" s="12">
+        <v>5</v>
+      </c>
+      <c r="I61" s="12">
+        <v>4</v>
+      </c>
+      <c r="J61" s="12">
         <v>7</v>
       </c>
-      <c r="H61" s="12">
-        <v>2</v>
-      </c>
-      <c r="I61" s="12">
-        <v>3</v>
-      </c>
-      <c r="J61" s="12">
-        <v>0</v>
-      </c>
       <c r="K61" s="12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L61" s="12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M61" s="12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N61" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O61" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P61" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q61" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R61" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S61" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T61" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="8">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E62" s="7">
         <v>0</v>
       </c>
       <c r="F62" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G62" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H62" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I62" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K62" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L62" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M62" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N62" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O62" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P62" s="9">
         <v>2</v>
@@ -5017,12 +5017,12 @@
         <v>1</v>
       </c>
       <c r="U62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>21</v>
@@ -5031,114 +5031,114 @@
         <v>0</v>
       </c>
       <c r="D63" s="13">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E63" s="12">
         <v>0</v>
       </c>
       <c r="F63" s="14">
+        <v>5</v>
+      </c>
+      <c r="G63" s="12">
         <v>6</v>
       </c>
-      <c r="G63" s="12">
+      <c r="H63" s="12">
         <v>7</v>
       </c>
-      <c r="H63" s="12">
-        <v>4</v>
-      </c>
       <c r="I63" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J63" s="12">
+        <v>1</v>
+      </c>
+      <c r="K63" s="12">
+        <v>2</v>
+      </c>
+      <c r="L63" s="12">
+        <v>3</v>
+      </c>
+      <c r="M63" s="12">
+        <v>4</v>
+      </c>
+      <c r="N63" s="12">
         <v>8</v>
       </c>
-      <c r="K63" s="12">
+      <c r="O63" s="12">
         <v>9</v>
       </c>
-      <c r="L63" s="12">
-        <v>0</v>
-      </c>
-      <c r="M63" s="12">
-        <v>1</v>
-      </c>
-      <c r="N63" s="12">
-        <v>2</v>
-      </c>
-      <c r="O63" s="12">
-        <v>3</v>
-      </c>
       <c r="P63" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R63" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S63" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T63" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C64" s="7">
         <v>0</v>
       </c>
       <c r="D64" s="8">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E64" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="9">
+        <v>3</v>
+      </c>
+      <c r="G64" s="7">
+        <v>4</v>
+      </c>
+      <c r="H64" s="7">
+        <v>7</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <v>5</v>
+      </c>
+      <c r="K64" s="7">
         <v>6</v>
       </c>
-      <c r="G64" s="7">
-        <v>7</v>
-      </c>
-      <c r="H64" s="7">
-        <v>3</v>
-      </c>
-      <c r="I64" s="7">
-        <v>0</v>
-      </c>
-      <c r="J64" s="7">
-        <v>4</v>
-      </c>
-      <c r="K64" s="7">
-        <v>5</v>
-      </c>
       <c r="L64" s="7">
+        <v>1</v>
+      </c>
+      <c r="M64" s="7">
+        <v>2</v>
+      </c>
+      <c r="N64" s="7">
         <v>8</v>
       </c>
-      <c r="M64" s="7">
+      <c r="O64" s="7">
         <v>9</v>
       </c>
-      <c r="N64" s="7">
-        <v>1</v>
-      </c>
-      <c r="O64" s="7">
-        <v>2</v>
-      </c>
       <c r="P64" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q64" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R64" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S64" s="7">
         <v>0</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="65" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>21</v>
@@ -5161,120 +5161,120 @@
         <v>0</v>
       </c>
       <c r="D65" s="13">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E65" s="12">
         <v>0</v>
       </c>
       <c r="F65" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G65" s="12">
+        <v>3</v>
+      </c>
+      <c r="H65" s="12">
+        <v>8</v>
+      </c>
+      <c r="I65" s="12">
+        <v>9</v>
+      </c>
+      <c r="J65" s="12">
         <v>5</v>
       </c>
-      <c r="H65" s="12">
-        <v>2</v>
-      </c>
-      <c r="I65" s="12">
-        <v>3</v>
-      </c>
-      <c r="J65" s="12">
-        <v>0</v>
-      </c>
       <c r="K65" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L65" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M65" s="12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N65" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O65" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P65" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q65" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R65" s="12">
         <v>0</v>
       </c>
       <c r="S65" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T65" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U65" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C66" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="8">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E66" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="9">
+        <v>8</v>
+      </c>
+      <c r="G66" s="7">
+        <v>9</v>
+      </c>
+      <c r="H66" s="7">
         <v>6</v>
       </c>
-      <c r="G66" s="7">
+      <c r="I66" s="7">
         <v>7</v>
       </c>
-      <c r="H66" s="7">
+      <c r="J66" s="7">
+        <v>2</v>
+      </c>
+      <c r="K66" s="7">
+        <v>3</v>
+      </c>
+      <c r="L66" s="7">
+        <v>0</v>
+      </c>
+      <c r="M66" s="7">
+        <v>1</v>
+      </c>
+      <c r="N66" s="7">
+        <v>4</v>
+      </c>
+      <c r="O66" s="7">
         <v>5</v>
       </c>
-      <c r="I66" s="7">
-        <v>2</v>
-      </c>
-      <c r="J66" s="7">
-        <v>8</v>
-      </c>
-      <c r="K66" s="7">
-        <v>9</v>
-      </c>
-      <c r="L66" s="7">
-        <v>0</v>
-      </c>
-      <c r="M66" s="7">
-        <v>1</v>
-      </c>
-      <c r="N66" s="7">
-        <v>3</v>
-      </c>
-      <c r="O66" s="7">
-        <v>4</v>
-      </c>
       <c r="P66" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R66" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S66" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T66" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U66" t="s">
         <v>103</v>
@@ -5282,19 +5282,19 @@
     </row>
     <row r="67" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C67" s="12">
         <v>0</v>
       </c>
       <c r="D67" s="13">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="E67" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="14">
         <v>4</v>
@@ -5303,122 +5303,125 @@
         <v>5</v>
       </c>
       <c r="H67" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I67" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67" s="12">
+        <v>8</v>
+      </c>
+      <c r="M67" s="12">
+        <v>9</v>
+      </c>
+      <c r="N67" s="12">
         <v>6</v>
       </c>
-      <c r="M67" s="12">
+      <c r="O67" s="12">
         <v>7</v>
       </c>
-      <c r="N67" s="12">
-        <v>8</v>
-      </c>
-      <c r="O67" s="12">
-        <v>9</v>
-      </c>
       <c r="P67" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R67" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S67" s="12">
         <v>3</v>
       </c>
       <c r="T67" s="15">
         <v>4</v>
+      </c>
+      <c r="U67" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C68" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="8">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E68" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="9">
+        <v>4</v>
+      </c>
+      <c r="G68" s="7">
         <v>5</v>
       </c>
-      <c r="G68" s="7">
-        <v>3</v>
-      </c>
       <c r="H68" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I68" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="7">
+        <v>6</v>
+      </c>
+      <c r="M68" s="7">
+        <v>7</v>
+      </c>
+      <c r="N68" s="7">
         <v>8</v>
       </c>
-      <c r="M68" s="7">
-        <v>6</v>
-      </c>
-      <c r="N68" s="7">
+      <c r="O68" s="7">
         <v>9</v>
       </c>
-      <c r="O68" s="7">
-        <v>7</v>
-      </c>
       <c r="P68" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R68" s="7">
         <v>0</v>
       </c>
       <c r="S68" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T68" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C69" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="13">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E69" s="12">
         <v>0</v>
@@ -5430,28 +5433,28 @@
         <v>9</v>
       </c>
       <c r="H69" s="12">
+        <v>3</v>
+      </c>
+      <c r="I69" s="12">
+        <v>0</v>
+      </c>
+      <c r="J69" s="12">
+        <v>4</v>
+      </c>
+      <c r="K69" s="12">
         <v>5</v>
       </c>
-      <c r="I69" s="12">
-        <v>4</v>
-      </c>
-      <c r="J69" s="12">
+      <c r="L69" s="12">
         <v>6</v>
       </c>
-      <c r="K69" s="12">
+      <c r="M69" s="12">
         <v>7</v>
       </c>
-      <c r="L69" s="12">
-        <v>0</v>
-      </c>
-      <c r="M69" s="12">
-        <v>1</v>
-      </c>
       <c r="N69" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O69" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P69" s="14">
         <v>3</v>
@@ -5460,30 +5463,30 @@
         <v>4</v>
       </c>
       <c r="R69" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S69" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C70" s="7">
         <v>0</v>
       </c>
       <c r="D70" s="8">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E70" s="7">
         <v>1</v>
@@ -5492,57 +5495,57 @@
         <v>5</v>
       </c>
       <c r="G70" s="7">
+        <v>3</v>
+      </c>
+      <c r="H70" s="7">
+        <v>4</v>
+      </c>
+      <c r="I70" s="7">
+        <v>2</v>
+      </c>
+      <c r="J70" s="7">
+        <v>1</v>
+      </c>
+      <c r="K70" s="7">
+        <v>0</v>
+      </c>
+      <c r="L70" s="7">
+        <v>8</v>
+      </c>
+      <c r="M70" s="7">
         <v>6</v>
       </c>
-      <c r="H70" s="7">
+      <c r="N70" s="7">
+        <v>9</v>
+      </c>
+      <c r="O70" s="7">
         <v>7</v>
       </c>
-      <c r="I70" s="7">
-        <v>2</v>
-      </c>
-      <c r="J70" s="7">
-        <v>8</v>
-      </c>
-      <c r="K70" s="7">
-        <v>9</v>
-      </c>
-      <c r="L70" s="7">
-        <v>0</v>
-      </c>
-      <c r="M70" s="7">
-        <v>1</v>
-      </c>
-      <c r="N70" s="7">
-        <v>3</v>
-      </c>
-      <c r="O70" s="7">
-        <v>4</v>
-      </c>
       <c r="P70" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q70" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R70" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S70" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T70" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U70" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C71" s="12">
         <v>0</v>
@@ -5554,49 +5557,49 @@
         <v>0</v>
       </c>
       <c r="F71" s="14">
-        <v>4</v>
-      </c>
-      <c r="G71" s="22">
+        <v>8</v>
+      </c>
+      <c r="G71" s="12">
+        <v>9</v>
+      </c>
+      <c r="H71" s="12">
         <v>5</v>
       </c>
-      <c r="H71" s="22">
-        <v>3</v>
-      </c>
-      <c r="I71" s="22">
-        <v>0</v>
-      </c>
-      <c r="J71" s="22">
-        <v>1</v>
-      </c>
-      <c r="K71" s="22">
-        <v>2</v>
-      </c>
-      <c r="L71" s="22">
-        <v>8</v>
-      </c>
-      <c r="M71" s="22">
-        <v>9</v>
-      </c>
-      <c r="N71" s="22">
+      <c r="I71" s="12">
+        <v>4</v>
+      </c>
+      <c r="J71" s="12">
         <v>6</v>
       </c>
-      <c r="O71" s="22">
+      <c r="K71" s="12">
         <v>7</v>
       </c>
+      <c r="L71" s="12">
+        <v>0</v>
+      </c>
+      <c r="M71" s="12">
+        <v>1</v>
+      </c>
+      <c r="N71" s="12">
+        <v>2</v>
+      </c>
+      <c r="O71" s="12">
+        <v>3</v>
+      </c>
       <c r="P71" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="22">
-        <v>2</v>
-      </c>
-      <c r="R71" s="22">
-        <v>0</v>
-      </c>
-      <c r="S71" s="22">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="Q71" s="12">
+        <v>4</v>
+      </c>
+      <c r="R71" s="12">
+        <v>2</v>
+      </c>
+      <c r="S71" s="12">
+        <v>0</v>
       </c>
       <c r="T71" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U71" t="s">
         <v>103</v>
@@ -5604,129 +5607,126 @@
     </row>
     <row r="72" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C72" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="8">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E72" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="9">
         <v>7</v>
       </c>
       <c r="G72" s="7">
+        <v>5</v>
+      </c>
+      <c r="H72" s="7">
         <v>8</v>
       </c>
-      <c r="H72" s="7">
+      <c r="I72" s="7">
+        <v>2</v>
+      </c>
+      <c r="J72" s="7">
         <v>9</v>
-      </c>
-      <c r="I72" s="7">
-        <v>4</v>
-      </c>
-      <c r="J72" s="7">
-        <v>5</v>
       </c>
       <c r="K72" s="7">
         <v>6</v>
       </c>
       <c r="L72" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O72" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P72" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q72" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R72" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S72" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72" s="10">
-        <v>2</v>
-      </c>
-      <c r="U72" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C73" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="13">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E73" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="14">
+        <v>6</v>
+      </c>
+      <c r="G73" s="12">
         <v>7</v>
       </c>
-      <c r="G73" s="12">
-        <v>6</v>
-      </c>
       <c r="H73" s="12">
+        <v>2</v>
+      </c>
+      <c r="I73" s="12">
+        <v>3</v>
+      </c>
+      <c r="J73" s="12">
+        <v>0</v>
+      </c>
+      <c r="K73" s="12">
+        <v>1</v>
+      </c>
+      <c r="L73" s="12">
+        <v>8</v>
+      </c>
+      <c r="M73" s="12">
+        <v>9</v>
+      </c>
+      <c r="N73" s="12">
+        <v>4</v>
+      </c>
+      <c r="O73" s="12">
         <v>5</v>
       </c>
-      <c r="I73" s="12">
-        <v>4</v>
-      </c>
-      <c r="J73" s="12">
-        <v>9</v>
-      </c>
-      <c r="K73" s="12">
-        <v>8</v>
-      </c>
-      <c r="L73" s="12">
-        <v>1</v>
-      </c>
-      <c r="M73" s="12">
-        <v>0</v>
-      </c>
-      <c r="N73" s="12">
-        <v>3</v>
-      </c>
-      <c r="O73" s="12">
-        <v>2</v>
-      </c>
       <c r="P73" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q73" s="12">
         <v>2</v>
       </c>
       <c r="R73" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S73" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T73" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U73" t="s">
         <v>101</v>
@@ -5734,64 +5734,64 @@
     </row>
     <row r="74" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="8">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E74" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="9">
+        <v>6</v>
+      </c>
+      <c r="G74" s="7">
         <v>7</v>
       </c>
-      <c r="G74" s="7">
-        <v>4</v>
-      </c>
       <c r="H74" s="7">
+        <v>4</v>
+      </c>
+      <c r="I74" s="7">
         <v>5</v>
       </c>
-      <c r="I74" s="7">
-        <v>2</v>
-      </c>
       <c r="J74" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K74" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L74" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M74" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N74" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O74" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P74" s="9">
         <v>2</v>
       </c>
       <c r="Q74" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R74" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S74" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T74" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U74" t="s">
         <v>101</v>
@@ -5799,44 +5799,44 @@
     </row>
     <row r="75" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C75" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="13">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E75" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="14">
+        <v>6</v>
+      </c>
+      <c r="G75" s="12">
+        <v>7</v>
+      </c>
+      <c r="H75" s="12">
+        <v>1</v>
+      </c>
+      <c r="I75" s="12">
+        <v>0</v>
+      </c>
+      <c r="J75" s="12">
+        <v>4</v>
+      </c>
+      <c r="K75" s="12">
+        <v>5</v>
+      </c>
+      <c r="L75" s="12">
         <v>8</v>
       </c>
-      <c r="G75" s="12">
+      <c r="M75" s="12">
         <v>9</v>
       </c>
-      <c r="H75" s="12">
-        <v>5</v>
-      </c>
-      <c r="I75" s="12">
-        <v>4</v>
-      </c>
-      <c r="J75" s="12">
-        <v>6</v>
-      </c>
-      <c r="K75" s="12">
-        <v>7</v>
-      </c>
-      <c r="L75" s="12">
-        <v>0</v>
-      </c>
-      <c r="M75" s="12">
-        <v>1</v>
-      </c>
       <c r="N75" s="12">
         <v>2</v>
       </c>
@@ -5850,13 +5850,13 @@
         <v>4</v>
       </c>
       <c r="R75" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S75" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U75" t="s">
         <v>101</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="76" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>21</v>
@@ -5873,40 +5873,40 @@
         <v>0</v>
       </c>
       <c r="D76" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E76" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G76" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H76" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I76" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J76" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K76" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L76" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M76" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O76" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P76" s="9">
         <v>3</v>
@@ -5915,57 +5915,57 @@
         <v>4</v>
       </c>
       <c r="R76" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S76" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U76" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C77" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="13">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E77" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="14">
+        <v>8</v>
+      </c>
+      <c r="G77" s="12">
+        <v>9</v>
+      </c>
+      <c r="H77" s="12">
         <v>6</v>
       </c>
-      <c r="G77" s="12">
+      <c r="I77" s="12">
         <v>7</v>
       </c>
-      <c r="H77" s="12">
-        <v>2</v>
-      </c>
-      <c r="I77" s="12">
-        <v>3</v>
-      </c>
       <c r="J77" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K77" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L77" s="12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M77" s="12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N77" s="12">
         <v>4</v>
@@ -5974,84 +5974,81 @@
         <v>5</v>
       </c>
       <c r="P77" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R77" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S77" s="12">
         <v>3</v>
       </c>
       <c r="T77" s="15">
         <v>4</v>
-      </c>
-      <c r="U77" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C78" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="8">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E78" s="7">
         <v>0</v>
       </c>
       <c r="F78" s="9">
+        <v>3</v>
+      </c>
+      <c r="G78" s="7">
+        <v>4</v>
+      </c>
+      <c r="H78" s="7">
+        <v>5</v>
+      </c>
+      <c r="I78" s="7">
+        <v>2</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
+      <c r="K78" s="7">
+        <v>1</v>
+      </c>
+      <c r="L78" s="7">
+        <v>8</v>
+      </c>
+      <c r="M78" s="7">
+        <v>9</v>
+      </c>
+      <c r="N78" s="7">
         <v>6</v>
       </c>
-      <c r="G78" s="7">
+      <c r="O78" s="7">
         <v>7</v>
       </c>
-      <c r="H78" s="7">
-        <v>4</v>
-      </c>
-      <c r="I78" s="7">
-        <v>5</v>
-      </c>
-      <c r="J78" s="7">
-        <v>8</v>
-      </c>
-      <c r="K78" s="7">
-        <v>9</v>
-      </c>
-      <c r="L78" s="7">
-        <v>0</v>
-      </c>
-      <c r="M78" s="7">
-        <v>1</v>
-      </c>
-      <c r="N78" s="7">
-        <v>2</v>
-      </c>
-      <c r="O78" s="7">
-        <v>3</v>
-      </c>
       <c r="P78" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R78" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S78" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T78" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U78" t="s">
         <v>101</v>
@@ -6059,72 +6056,72 @@
     </row>
     <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C79" s="12">
         <v>0</v>
       </c>
       <c r="D79" s="13">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E79" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="14">
+        <v>7</v>
+      </c>
+      <c r="G79" s="12">
+        <v>4</v>
+      </c>
+      <c r="H79" s="12">
         <v>5</v>
       </c>
-      <c r="G79" s="12">
+      <c r="I79" s="12">
+        <v>2</v>
+      </c>
+      <c r="J79" s="12">
+        <v>0</v>
+      </c>
+      <c r="K79" s="12">
+        <v>1</v>
+      </c>
+      <c r="L79" s="12">
         <v>6</v>
       </c>
-      <c r="H79" s="12">
-        <v>7</v>
-      </c>
-      <c r="I79" s="12">
-        <v>2</v>
-      </c>
-      <c r="J79" s="12">
+      <c r="M79" s="12">
+        <v>3</v>
+      </c>
+      <c r="N79" s="12">
+        <v>9</v>
+      </c>
+      <c r="O79" s="12">
         <v>8</v>
       </c>
-      <c r="K79" s="12">
-        <v>9</v>
-      </c>
-      <c r="L79" s="12">
-        <v>0</v>
-      </c>
-      <c r="M79" s="12">
-        <v>1</v>
-      </c>
-      <c r="N79" s="12">
-        <v>3</v>
-      </c>
-      <c r="O79" s="12">
-        <v>4</v>
-      </c>
       <c r="P79" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q79" s="12">
         <v>1</v>
       </c>
       <c r="R79" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S79" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T79" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U79" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -6133,58 +6130,58 @@
         <v>0</v>
       </c>
       <c r="D80" s="18">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E80" s="17">
         <v>0</v>
       </c>
       <c r="F80" s="19">
+        <v>4</v>
+      </c>
+      <c r="G80" s="22">
         <v>5</v>
       </c>
-      <c r="G80" s="23">
+      <c r="H80" s="22">
+        <v>3</v>
+      </c>
+      <c r="I80" s="22">
+        <v>0</v>
+      </c>
+      <c r="J80" s="22">
+        <v>1</v>
+      </c>
+      <c r="K80" s="22">
+        <v>2</v>
+      </c>
+      <c r="L80" s="22">
+        <v>8</v>
+      </c>
+      <c r="M80" s="22">
+        <v>9</v>
+      </c>
+      <c r="N80" s="22">
         <v>6</v>
       </c>
-      <c r="H80" s="23">
+      <c r="O80" s="22">
         <v>7</v>
       </c>
-      <c r="I80" s="23">
-        <v>0</v>
-      </c>
-      <c r="J80" s="23">
-        <v>1</v>
-      </c>
-      <c r="K80" s="23">
-        <v>2</v>
-      </c>
-      <c r="L80" s="23">
-        <v>3</v>
-      </c>
-      <c r="M80" s="23">
-        <v>4</v>
-      </c>
-      <c r="N80" s="23">
-        <v>8</v>
-      </c>
-      <c r="O80" s="23">
-        <v>9</v>
-      </c>
       <c r="P80" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="23">
-        <v>1</v>
-      </c>
-      <c r="R80" s="23">
-        <v>2</v>
-      </c>
-      <c r="S80" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="22">
+        <v>2</v>
+      </c>
+      <c r="R80" s="22">
+        <v>0</v>
+      </c>
+      <c r="S80" s="22">
         <v>3</v>
       </c>
       <c r="T80" s="20">
         <v>4</v>
       </c>
       <c r="U80" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8942,7 +8939,7 @@
       <c r="D998" s="21"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D2:D80" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>AND(ISNUMBER(D2),(NOT(OR(NOT(ISERROR(DATEVALUE(D2))), AND(ISNUMBER(D2), LEFT(CELL("format", D2))="D")))))</formula1>
     </dataValidation>
@@ -8956,6 +8953,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -9138,24 +9152,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76795637-1749-499A-98A7-94E1CD8F32E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17F6FD9D-19D1-439B-8BFE-82DBC99BDEA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C79516F1-8A13-4F63-820A-89A8B84A29E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9172,22 +9187,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17F6FD9D-19D1-439B-8BFE-82DBC99BDEA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76795637-1749-499A-98A7-94E1CD8F32E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>